--- a/biology/Médecine/TranCYST/TranCYST.xlsx
+++ b/biology/Médecine/TranCYST/TranCYST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TranCYST est un réseau de formation initiale Marie Curie (en) (ITN) de 4 ans qui a pour sujet la Polykystose Rénale Autosomique Dominante (PKD). Ce projet de recherche translationnel fait partie du Septième programme-cadre de la Commission européenne et a commencé le 1er décembre 2012 pour une fin fixée au 30 novembre 2016[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TranCYST est un réseau de formation initiale Marie Curie (en) (ITN) de 4 ans qui a pour sujet la Polykystose Rénale Autosomique Dominante (PKD). Ce projet de recherche translationnel fait partie du Septième programme-cadre de la Commission européenne et a commencé le 1er décembre 2012 pour une fin fixée au 30 novembre 2016.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La polykystose rénale dominante (ADPKD) qui affecte entre 1/400 et 1/1000 personnes[2] est la maladie héréditaire monogénique rénale la plus fréquente. Les patients développent entre autres des kystes rénaux qui vont conduire à un élargissement massif et douloureux des reins. Le nombre et la taille de ces kystes augmente progressivement avec l'âge, pouvant entraîner une insuffisance rénale chronique terminale chez la moitié des patients à l'âge de 50 ans qui vont alors nécessiter une dialyse ou une transplantation rénale[3]. Les traitements ont pour but de réduire les symptômes et retarder l'insuffisance rénale, cependant aucune thérapie n'existe à l'heure actuelle. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La polykystose rénale dominante (ADPKD) qui affecte entre 1/400 et 1/1000 personnes est la maladie héréditaire monogénique rénale la plus fréquente. Les patients développent entre autres des kystes rénaux qui vont conduire à un élargissement massif et douloureux des reins. Le nombre et la taille de ces kystes augmente progressivement avec l'âge, pouvant entraîner une insuffisance rénale chronique terminale chez la moitié des patients à l'âge de 50 ans qui vont alors nécessiter une dialyse ou une transplantation rénale. Les traitements ont pour but de réduire les symptômes et retarder l'insuffisance rénale, cependant aucune thérapie n'existe à l'heure actuelle. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>But</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De manière générale, le but du réseau TranCYST est de transposer les découvertes de la recherche basique sur ADPKD vers la pratique clinique. Ses objectifs incluent "la caractérisation des changements métaboliques pathologiques, la validation de modèles précliniques de la maladie, l'identification et tests précliniques de médicaments, l'établissement de nouveaux outils pour la détection précoce de la maladie et le suivi de la progression de la pathologie kystique rénale, ainsi que l'évaluation des essais cliniques en cours"[4]. Cette approche multidisciplinaire requiert une collaboration entre chercheurs de formations scientifiques différentes et complémentaires. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De manière générale, le but du réseau TranCYST est de transposer les découvertes de la recherche basique sur ADPKD vers la pratique clinique. Ses objectifs incluent "la caractérisation des changements métaboliques pathologiques, la validation de modèles précliniques de la maladie, l'identification et tests précliniques de médicaments, l'établissement de nouveaux outils pour la détection précoce de la maladie et le suivi de la progression de la pathologie kystique rénale, ainsi que l'évaluation des essais cliniques en cours". Cette approche multidisciplinaire requiert une collaboration entre chercheurs de formations scientifiques différentes et complémentaires. 
 Le réseau TranCYST offre également un programme de recherche translationnel et multidisciplinaire à de jeunes chercheurs, pour les préparer à devenir des scientifiques de renom de la recherche européenne académique ou industrielle sur ADPKD.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Partenaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le réseau TranCYST comprend 5 groupes académiques et 2 partenaires du secteur privé de 6 pays Européens différents.
 Groupes académiques
@@ -613,7 +631,9 @@
           <t>Partenaires associés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Universitair Medisch Centrum St. Radboud Nijmegen (UMCN) - Nimègue, Pays-Bas
 Universiteit van Antwerpen (UA) - Anvers, Belgique
@@ -647,7 +667,9 @@
           <t>Projets</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>LUMC : deux projets sont en cours à l'université de Leyde :
 Les mécanismes biologiques et moléculaires de formation des kystes et de progression de ADPKD sont caractérisés afin de découvrir des cibles thérapeutiques adaptées au traitement de la maladie.
